--- a/Source/Excel/role.xlsx
+++ b/Source/Excel/role.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64065574-5257-43F4-847A-C3BDDFF19216}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B4DCF-8EBA-4121-9CC2-F3D1DE55352C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>age</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>gender</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -74,16 +66,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>role_model_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_model_02</t>
-  </si>
-  <si>
-    <t>role_model_03</t>
-  </si>
-  <si>
     <t>玩家1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -92,6 +74,52 @@
   </si>
   <si>
     <t>玩家3</t>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,3]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,4]</t>
+  </si>
+  <si>
+    <t>[1,5]</t>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package/Prefab/Model/Role/model_1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package/Prefab/Model/Role/model_2.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package/Prefab/Model/Role/model_3.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,22 +493,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="13" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="4" max="6" width="13" style="3" customWidth="1"/>
+    <col min="7" max="7" width="43" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,19 +516,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -508,24 +542,30 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>18</v>
@@ -533,19 +573,25 @@
       <c r="D3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
+      <c r="E3" s="3">
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>19</v>
@@ -553,19 +599,25 @@
       <c r="D4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
+      <c r="E4" s="3">
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>21</v>
@@ -573,11 +625,17 @@
       <c r="D5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
+      <c r="E5" s="3">
+        <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Excel/role.xlsx
+++ b/Source/Excel/role.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B4DCF-8EBA-4121-9CC2-F3D1DE55352C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0F58A-68BF-4AA6-9CB4-D8345DF767C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,20 +88,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,4]</t>
-  </si>
-  <si>
-    <t>[1,5]</t>
-  </si>
-  <si>
     <t>quality</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -119,6 +105,22 @@
   </si>
   <si>
     <t>Package/Prefab/Model/Role/model_3.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,1],[2,1],[3,1]]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,2],[2,2],[3,2]]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,3],[2,3],[3,3]]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -496,13 +498,14 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="6" width="13" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="43" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
@@ -522,7 +525,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -548,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -577,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>11</v>
@@ -603,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -629,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>

--- a/Source/Excel/role.xlsx
+++ b/Source/Excel/role.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0F58A-68BF-4AA6-9CB4-D8345DF767C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE590558-BBB6-4A4B-881A-E880B7B63A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -121,6 +121,38 @@
   </si>
   <si>
     <t>[[1,3],[2,3],[3,3]]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,67 +569,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
@@ -606,38 +638,64 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="b">
+      <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Source/Excel/role.xlsx
+++ b/Source/Excel/role.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE590558-BBB6-4A4B-881A-E880B7B63A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4739D0AF-3A14-4E7C-9098-A5D9A3EC166C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>uint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Alice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -92,10 +84,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>uint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Package/Prefab/Model/Role/model_1.prefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -153,6 +141,10 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +522,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,16 +546,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -571,28 +563,28 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -603,16 +595,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -626,25 +618,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="b">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -652,25 +644,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="b">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -678,25 +670,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="b">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
